--- a/data/outputs/management/76.xlsx
+++ b/data/outputs/management/76.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ122"/>
+  <dimension ref="A1:BR122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -901,6 +906,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1108,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>27199373</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1299,6 +1310,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1500,6 +1512,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1697,6 +1710,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1902,6 +1916,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2107,6 +2122,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4620088</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2312,6 +2332,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>3750105</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2513,6 +2538,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2718,6 +2744,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4709756</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2919,6 +2950,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3116,6 +3148,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4796063</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3313,6 +3350,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3518,6 +3556,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4506937</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3715,6 +3758,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4309084</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3916,6 +3964,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4652582</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4125,6 +4178,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4322,6 +4376,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4535,6 +4590,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4426979</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4748,6 +4808,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4953,6 +5014,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5154,6 +5216,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5351,6 +5414,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>64238510</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5548,6 +5616,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5745,6 +5814,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4411267</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5950,6 +6024,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6155,6 +6230,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6360,6 +6436,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6561,6 +6638,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4390040</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6758,6 +6840,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6967,6 +7050,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7176,6 +7260,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7377,6 +7462,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7582,6 +7668,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4778769</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7795,6 +7886,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8000,6 +8092,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4463964</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8197,6 +8294,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8402,6 +8500,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8603,6 +8702,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8816,6 +8916,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4654364</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9021,6 +9126,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>44198431</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9234,6 +9344,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>4262370</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9447,6 +9562,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9644,6 +9760,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9849,6 +9966,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10054,6 +10172,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10259,6 +10378,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10472,6 +10592,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>3964417</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10677,6 +10802,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>2189838</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10886,6 +11016,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11087,6 +11218,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>9905101</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11300,6 +11436,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>1695233</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11489,6 +11630,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11698,6 +11840,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>2343870</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11915,6 +12062,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>2474780</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12128,6 +12280,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>9907126</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12337,6 +12494,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12546,6 +12704,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12747,6 +12906,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12952,6 +13112,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13157,6 +13318,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>3880162</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13358,6 +13524,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13567,6 +13734,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>3854635</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13764,6 +13936,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13961,6 +14134,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14170,6 +14344,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14383,6 +14558,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>10448291</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14584,6 +14764,11 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>3885009</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14785,6 +14970,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14982,6 +15168,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>3223278</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15187,6 +15378,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15388,6 +15580,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15593,6 +15786,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15794,6 +15988,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16003,6 +16198,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16212,6 +16408,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16409,6 +16606,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16626,6 +16824,11 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>6164691</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16831,6 +17034,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17036,6 +17240,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17249,6 +17454,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>3848317</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17450,6 +17660,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>14229040</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17647,6 +17862,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17844,6 +18060,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>3844746</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18045,6 +18266,11 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>4464647</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18246,6 +18472,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>3353447</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18447,6 +18678,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>3911662</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18652,6 +18888,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>49578105</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18853,6 +19094,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>2941244</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19054,6 +19300,11 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>3760534</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19251,6 +19502,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19448,6 +19700,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19649,6 +19902,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19862,6 +20116,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20067,6 +20322,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20268,6 +20524,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20465,6 +20722,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>3754870</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20670,6 +20932,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>2851755</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -20875,6 +21142,11 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>2851862</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21080,6 +21352,11 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>29300520</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21281,6 +21558,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>4566597</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21478,6 +21760,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>3879243</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21675,6 +21962,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -21876,6 +22164,11 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>3879236</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22081,6 +22374,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>3020150</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22282,6 +22580,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>2872743</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22479,6 +22782,11 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>3327755</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22676,6 +22984,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>2749459</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -22873,6 +23186,11 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr">
+        <is>
+          <t>3770926</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23074,6 +23392,11 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr">
+        <is>
+          <t>2851887</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23271,6 +23594,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23472,6 +23796,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -23669,6 +23994,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -23870,6 +24196,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24071,6 +24398,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24272,6 +24600,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24477,6 +24806,11 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t>4721414</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -24674,6 +25008,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -24875,6 +25210,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>4409764</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25072,6 +25412,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25273,6 +25614,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
